--- a/Code/Corpus Inclusions.xlsx
+++ b/Code/Corpus Inclusions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siruspalsson1/Desktop/PhD/NLP/Project/MALV-FinalProject/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAF96D8-C47F-8644-8ECE-ACCAE603DB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397F22FB-4737-8D44-9B13-3A321C071DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20400" yWindow="5340" windowWidth="27640" windowHeight="16940" xr2:uid="{A4B8A086-B506-7441-A748-1B36EB395A02}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{A4B8A086-B506-7441-A748-1B36EB395A02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1185,13 +1185,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC68CE05-44DE-6644-900B-230ED944A6A7}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="M71" sqref="M71"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="52.83203125" customWidth="1"/>
+    <col min="2" max="2" width="92" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1205,7 +1209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1219,7 +1223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1233,7 +1237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1247,7 +1251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1261,7 +1265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1275,7 +1279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1289,7 +1293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1303,7 +1307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1331,7 +1335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1345,7 +1349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1359,7 +1363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1373,7 +1377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1387,7 +1391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1401,7 +1405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1415,7 +1419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1429,7 +1433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1443,7 +1447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1457,7 +1461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1471,7 +1475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1485,7 +1489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1499,7 +1503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1513,7 +1517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1541,7 +1545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1555,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -1569,7 +1573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -1583,7 +1587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -1597,7 +1601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -1611,7 +1615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -1625,7 +1629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -1639,7 +1643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -1653,7 +1657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -1667,7 +1671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -1695,7 +1699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="289" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -1709,7 +1713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -1723,7 +1727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -1737,7 +1741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -1751,7 +1755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -1765,7 +1769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -1779,7 +1783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -1793,7 +1797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -1807,7 +1811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -1821,7 +1825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -1835,7 +1839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -1849,7 +1853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -1863,7 +1867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -1877,7 +1881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -1891,7 +1895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>151</v>
       </c>
@@ -1905,7 +1909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>154</v>
       </c>
@@ -1919,7 +1923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>157</v>
       </c>
@@ -1933,7 +1937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -1947,7 +1951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -1961,7 +1965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>166</v>
       </c>
@@ -1975,7 +1979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>169</v>
       </c>
@@ -1989,7 +1993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>172</v>
       </c>
@@ -2003,7 +2007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -2017,7 +2021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>178</v>
       </c>
@@ -2031,7 +2035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -2045,7 +2049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -2059,7 +2063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -2073,7 +2077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -2087,7 +2091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -2101,7 +2105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>196</v>
       </c>
@@ -2115,7 +2119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>199</v>
       </c>
@@ -2129,7 +2133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>202</v>
       </c>
@@ -2143,7 +2147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>205</v>
       </c>
@@ -2157,7 +2161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -2171,7 +2175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>211</v>
       </c>
